--- a/unsteady/test_cases/beach_sed_model/results.xlsx
+++ b/unsteady/test_cases/beach_sed_model/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mc4117/Documents/adapt_utils/unsteady/test_cases/beach_sed_model/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A01E3778-6AB3-064E-B7CE-4D17D0CB3842}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F645FA0A-69A7-3B45-863E-C2169341A04F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{B017E1C9-1B2D-1B4F-852C-3C0C8B4E6212}"/>
   </bookViews>
@@ -34,28 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="11">
-  <si>
-    <t>alpha</t>
-  </si>
-  <si>
-    <t>uv_max</t>
-  </si>
-  <si>
-    <t>uv_gradient</t>
-  </si>
-  <si>
-    <t>both</t>
-  </si>
-  <si>
-    <t>ERROR</t>
-  </si>
-  <si>
-    <t>Time</t>
-  </si>
-  <si>
-    <t>nx</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>time</t>
   </si>
@@ -64,9 +43,6 @@
   </si>
   <si>
     <t>l2 error</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -433,10 +409,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C7198F0-F84E-374B-B998-724A62D77180}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" zoomScale="123" zoomScaleNormal="123" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -526,84 +502,42 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4">
-        <v>0.10431471120802099</v>
-      </c>
-      <c r="C4">
-        <v>6.6026534157583902E-2</v>
-      </c>
-      <c r="D4">
-        <v>4.4975581681569198E-2</v>
-      </c>
-      <c r="E4">
-        <v>3.9043237299554001E-2</v>
-      </c>
-      <c r="F4">
-        <v>1.35690414820103E-2</v>
-      </c>
-      <c r="G4">
-        <v>1.25601385257414E-2</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5">
-        <v>1.023846842</v>
-      </c>
-      <c r="C5">
-        <v>0.81310615313221801</v>
-      </c>
-      <c r="D5">
-        <v>0.71008742835900895</v>
-      </c>
-      <c r="E5">
-        <v>0.63928312790953401</v>
-      </c>
-      <c r="F5">
-        <v>0.44625425186484002</v>
-      </c>
-      <c r="G5" s="2">
-        <v>0.37803551588699702</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6">
-        <v>1986</v>
-      </c>
-      <c r="C6">
-        <v>3043</v>
-      </c>
-      <c r="D6">
-        <v>4116</v>
-      </c>
-      <c r="E6">
-        <v>5160</v>
-      </c>
-      <c r="F6">
-        <v>8179</v>
-      </c>
-      <c r="G6" s="2">
-        <v>23569.493140697399</v>
-      </c>
-      <c r="H6" s="2">
-        <v>74027.494256257996</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1549.8121011257099</v>
+      </c>
+      <c r="C6" s="2">
+        <v>2061.5285015106201</v>
+      </c>
+      <c r="D6" s="2">
+        <v>4739.3682782649903</v>
+      </c>
+      <c r="E6" s="2">
+        <v>6026.7594110965701</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B12" s="2"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B18" s="2"/>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B19" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -612,660 +546,196 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E89E8E79-0CDB-9B47-AD5E-7F2A985E6A2A}">
-  <dimension ref="A1:K39"/>
+  <dimension ref="A2:K39"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-    </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s">
-        <v>2</v>
-      </c>
-      <c r="K2" t="s">
-        <v>3</v>
+      <c r="A2">
+        <v>0.2</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>0.25</v>
-      </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>0.25</v>
-      </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
-      <c r="E4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>0.25</v>
-      </c>
+      <c r="E4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>10</v>
-      </c>
-      <c r="B5">
-        <v>0.25</v>
-      </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
-      <c r="G5">
-        <v>10</v>
-      </c>
-      <c r="H5">
-        <v>0.25</v>
-      </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>20</v>
-      </c>
-      <c r="B6">
-        <v>0.25</v>
-      </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="G6">
-        <v>20</v>
-      </c>
-      <c r="H6">
-        <v>0.25</v>
-      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>25</v>
-      </c>
-      <c r="B7" s="1">
-        <v>0.25</v>
-      </c>
+      <c r="B7" s="1"/>
       <c r="C7" s="2"/>
       <c r="E7" s="2"/>
-      <c r="G7">
-        <v>25</v>
-      </c>
-      <c r="H7" s="1">
-        <v>0.25</v>
-      </c>
+      <c r="H7" s="1"/>
       <c r="I7" s="2"/>
       <c r="K7" s="2"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>30</v>
-      </c>
-      <c r="B8" s="1">
-        <v>0.25</v>
-      </c>
+      <c r="B8" s="1"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
-      <c r="G8">
-        <v>30</v>
-      </c>
-      <c r="H8" s="1">
-        <v>0.25</v>
-      </c>
+      <c r="H8" s="1"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>35</v>
-      </c>
-      <c r="B9" s="1">
-        <v>0.25</v>
-      </c>
+      <c r="B9" s="1"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
-      <c r="G9">
-        <v>35</v>
-      </c>
-      <c r="H9" s="1">
-        <v>0.25</v>
-      </c>
+      <c r="H9" s="1"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>40</v>
-      </c>
-      <c r="B10" s="1">
-        <v>0.25</v>
-      </c>
+      <c r="B10" s="1"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
-      <c r="G10">
-        <v>40</v>
-      </c>
-      <c r="H10" s="1">
-        <v>0.25</v>
-      </c>
+      <c r="H10" s="1"/>
       <c r="J10" s="2"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>45</v>
-      </c>
-      <c r="B11" s="1">
-        <v>0.25</v>
-      </c>
+      <c r="B11" s="1"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
-      <c r="G11">
-        <v>45</v>
-      </c>
-      <c r="H11" s="1">
-        <v>0.25</v>
-      </c>
+      <c r="H11" s="1"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>50</v>
-      </c>
-      <c r="B12" s="1">
-        <v>0.25</v>
-      </c>
+      <c r="B12" s="1"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
-      <c r="G12">
-        <v>50</v>
-      </c>
-      <c r="H12" s="1">
-        <v>0.25</v>
-      </c>
+      <c r="H12" s="1"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>4</v>
-      </c>
-      <c r="G15" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" t="s">
-        <v>1</v>
-      </c>
-      <c r="D16" t="s">
-        <v>2</v>
-      </c>
-      <c r="E16" t="s">
-        <v>3</v>
-      </c>
-      <c r="G16" t="s">
-        <v>0</v>
-      </c>
-      <c r="H16" t="s">
-        <v>6</v>
-      </c>
-      <c r="I16" t="s">
-        <v>1</v>
-      </c>
-      <c r="J16" t="s">
-        <v>2</v>
-      </c>
-      <c r="K16" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>0</v>
-      </c>
-      <c r="B17">
-        <v>0.5</v>
-      </c>
+    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
-      <c r="H17">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>1</v>
-      </c>
-      <c r="B18">
-        <v>0.5</v>
-      </c>
+    </row>
+    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-      <c r="G18">
-        <v>1</v>
-      </c>
-      <c r="H18">
-        <v>0.5</v>
-      </c>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>10</v>
-      </c>
-      <c r="B19">
-        <v>0.5</v>
-      </c>
+    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
-      <c r="G19">
-        <v>10</v>
-      </c>
-      <c r="H19">
-        <v>0.5</v>
-      </c>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>20</v>
-      </c>
-      <c r="B20">
-        <v>0.5</v>
-      </c>
+    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-      <c r="G20">
-        <v>20</v>
-      </c>
-      <c r="H20">
-        <v>0.5</v>
-      </c>
       <c r="J20" s="2"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>25</v>
-      </c>
-      <c r="B21">
-        <v>0.5</v>
-      </c>
+    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
-      <c r="G21">
-        <v>25</v>
-      </c>
-      <c r="H21">
-        <v>0.5</v>
-      </c>
       <c r="I21" s="2"/>
       <c r="K21" s="2"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>30</v>
-      </c>
-      <c r="B22">
-        <v>0.5</v>
-      </c>
+    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
-      <c r="G22">
-        <v>30</v>
-      </c>
-      <c r="H22">
-        <v>0.5</v>
-      </c>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>35</v>
-      </c>
-      <c r="B23">
-        <v>0.5</v>
-      </c>
+    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
-      <c r="G23">
-        <v>35</v>
-      </c>
-      <c r="H23">
-        <v>0.5</v>
-      </c>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>40</v>
-      </c>
-      <c r="B24">
-        <v>0.5</v>
-      </c>
+    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
-      <c r="G24">
-        <v>40</v>
-      </c>
-      <c r="H24">
-        <v>0.5</v>
-      </c>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>45</v>
-      </c>
-      <c r="B25">
-        <v>0.5</v>
-      </c>
+    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
-      <c r="G25">
-        <v>45</v>
-      </c>
-      <c r="H25">
-        <v>0.5</v>
-      </c>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>50</v>
-      </c>
-      <c r="B26">
-        <v>0.5</v>
-      </c>
+    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
-      <c r="G26">
-        <v>50</v>
-      </c>
-      <c r="H26">
-        <v>0.5</v>
-      </c>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>4</v>
-      </c>
-      <c r="G28" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>0</v>
-      </c>
-      <c r="B29" t="s">
-        <v>6</v>
-      </c>
-      <c r="C29" t="s">
-        <v>1</v>
-      </c>
-      <c r="D29" t="s">
-        <v>2</v>
-      </c>
-      <c r="E29" t="s">
-        <v>3</v>
-      </c>
-      <c r="G29" t="s">
-        <v>0</v>
-      </c>
-      <c r="H29" t="s">
-        <v>6</v>
-      </c>
-      <c r="I29" t="s">
-        <v>1</v>
-      </c>
-      <c r="J29" t="s">
-        <v>2</v>
-      </c>
-      <c r="K29" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>0</v>
-      </c>
-      <c r="B30">
-        <v>0.75</v>
-      </c>
+    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
-      <c r="G30">
-        <v>0</v>
-      </c>
-      <c r="H30">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>1</v>
-      </c>
-      <c r="B31">
-        <v>0.75</v>
-      </c>
-      <c r="G31">
-        <v>1</v>
-      </c>
-      <c r="H31">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>10</v>
-      </c>
-      <c r="B32">
-        <v>0.75</v>
-      </c>
+    </row>
+    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C32" s="2"/>
-      <c r="G32">
-        <v>10</v>
-      </c>
-      <c r="H32">
-        <v>0.75</v>
-      </c>
       <c r="I32" s="2"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>20</v>
-      </c>
-      <c r="B33">
-        <v>0.75</v>
-      </c>
+    <row r="33" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C33" s="2"/>
-      <c r="G33">
-        <v>20</v>
-      </c>
-      <c r="H33">
-        <v>0.75</v>
-      </c>
       <c r="I33" s="2"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34">
-        <v>25</v>
-      </c>
-      <c r="B34">
-        <v>0.75</v>
-      </c>
-      <c r="G34">
-        <v>25</v>
-      </c>
-      <c r="H34">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <v>30</v>
-      </c>
-      <c r="B35">
-        <v>0.75</v>
-      </c>
+    <row r="35" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C35" s="2"/>
-      <c r="G35">
-        <v>30</v>
-      </c>
-      <c r="H35">
-        <v>0.75</v>
-      </c>
       <c r="I35" s="2"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <v>35</v>
-      </c>
-      <c r="B36">
-        <v>0.75</v>
-      </c>
-      <c r="G36">
-        <v>35</v>
-      </c>
-      <c r="H36">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37">
-        <v>40</v>
-      </c>
-      <c r="B37">
-        <v>0.75</v>
-      </c>
+    <row r="37" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C37" s="2"/>
-      <c r="G37">
-        <v>40</v>
-      </c>
-      <c r="H37">
-        <v>0.75</v>
-      </c>
       <c r="I37" s="2"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38">
-        <v>45</v>
-      </c>
-      <c r="B38">
-        <v>0.75</v>
-      </c>
-      <c r="G38">
-        <v>45</v>
-      </c>
-      <c r="H38">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A39">
-        <v>50</v>
-      </c>
-      <c r="B39">
-        <v>0.75</v>
-      </c>
+    <row r="39" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C39" s="2"/>
-      <c r="G39">
-        <v>50</v>
-      </c>
-      <c r="H39">
-        <v>0.75</v>
-      </c>
       <c r="I39" s="2"/>
     </row>
   </sheetData>
